--- a/docs/PTA2_DDC_80/PTA2_DDC_80_13.11.2024_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731780155.729064</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731780159.91474</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731780155.729064.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731780159.91474.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>134.99</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>135.45</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.4599999999999795</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731780164.7967663</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731780166.7049646</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731780164.7967663.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731780166.7049646.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>135.41</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.66</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.25</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731780169.4551299</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731780169.4551299.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731780169.4551299.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.79</v>
       </c>
-      <c r="J5" t="n">
-        <v>135.79</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>136.39</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.5999999999999943</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731780176.000008</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731780177.0499883</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780176.000008.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780177.0499883.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6976.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6991</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>14.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731780179.018895</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731780181.162642</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780179.018895.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780181.162642.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7005</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7003.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.5</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731780188.310745</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731780190.9365876</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780188.310745.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731780190.9365876.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7020</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7027.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-7.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731780193.599982</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731780200.2125409</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780193.599982.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780200.2125409.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>486.45</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>488.35</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-1.900000000000034</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731780204.5241697</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731780206.7146006</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780204.5241697.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780206.7146006.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>490.4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>489.45</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.9499999999999886</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731780207.1824093</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731780208.3357935</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780207.1824093.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731780208.3357935.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>488.8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>489.35</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.5500000000000114</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -999,95 +1069,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731780211.2470741</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731780211.2470741.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731780211.2470741.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>491.55</v>
       </c>
-      <c r="J12" t="n">
-        <v>491.55</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>493.35</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.800000000000011</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731780216.3798704</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731780219.334708</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780216.3798704.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780219.334708.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>927.4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>927.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731780221.950866</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731780222.8472364</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780221.950866.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780222.8472364.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>926.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>930.4</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>4.199999999999932</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731780225.7403388</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731780226.5970037</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780225.7403388.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780226.5970037.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>925.4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>929.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>3.800000000000068</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731780229.999848</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731780230.6029665</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780229.999848.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731780230.6029665.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>929.6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>929.8</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.1999999999999318</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1251,95 +1351,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731780232.7250032</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731780232.7250032.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731780232.7250032.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>934.4</v>
       </c>
-      <c r="J17" t="n">
-        <v>934.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>934.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731780233.3925505</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731780243.5813394</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780233.3925505.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780243.5813394.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>37.73</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>38.29</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.5600000000000023</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-1.48</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731780244.8081582</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731780245.425989</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780244.8081582.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780245.425989.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>38.395</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>38.3</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.09500000000000597</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731780246.1306622</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731780250.436521</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780246.1306622.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731780250.436521.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>38.165</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>38.22</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1451,95 +1575,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731780251.4831913</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731780251.4831913.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731780251.4831913.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>38.25</v>
       </c>
-      <c r="J21" t="n">
-        <v>38.25</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>38.405</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.1550000000000011</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731780255.2457955</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731780257.4784212</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780255.2457955.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780257.4784212.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1233.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1230.4</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>3</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1547,51 +1683,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731780259.446513</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731780260.0227516</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780259.446513.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780260.0227516.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1227</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1232</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>5</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1599,51 +1741,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731780260.9207747</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731780262.860268</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780260.9207747.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780262.860268.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1238.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1235</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1651,51 +1799,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731780267.4920638</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731780272.9008746</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780267.4920638.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731780272.9008746.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1233.2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1223.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-10</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.8099999999999999</v>
       </c>
     </row>
@@ -1703,95 +1857,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731780273.5296164</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731780273.5296164.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731780273.5296164.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1223.6</v>
       </c>
-      <c r="J26" t="n">
-        <v>1223.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1233.2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-9.600000000000136</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.7799999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731780278.0831854</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731780282.0646615</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780278.0831854.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780282.0646615.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>80.89</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>80.77</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1799,51 +1965,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731780283.113169</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731780285.0164828</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780283.113169.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780285.0164828.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>81.23999999999999</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>81.05</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1851,51 +2023,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731780289.5462446</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731780296.182545</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780289.5462446.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731780296.182545.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>80.93000000000001</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>80.39</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.5400000000000063</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.67</v>
       </c>
     </row>
@@ -1903,95 +2081,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731780296.5796683</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731780296.5796683.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731780296.5796683.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>80.54000000000001</v>
       </c>
-      <c r="J30" t="n">
-        <v>80.54000000000001</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>80.79000000000001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731780300.1633472</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731780306.8239732</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780300.1633472.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780306.8239732.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>14.187</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>14.215</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.02800000000000047</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1999,51 +2189,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731780313.5843313</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731780314.5802863</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780313.5843313.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780314.5802863.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>14.138</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>14.226</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.08800000000000097</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -2051,51 +2247,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731780318.4152694</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731780319.592733</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780318.4152694.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731780319.592733.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>14.246</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>14.195</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.05100000000000016</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2103,95 +2305,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731780320.4665926</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731780320.4665926.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731780320.4665926.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>14.281</v>
       </c>
-      <c r="J34" t="n">
-        <v>14.281</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>14.369</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.08799999999999919</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731780324.6366234</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731780325.2321508</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780324.6366234.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780325.2321508.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>104.07</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>104.32</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.25</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2199,51 +2413,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731780327.0075777</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731780334.557447</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780327.0075777.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780334.557447.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>104.67</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>105.6</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.9299999999999926</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.89</v>
       </c>
     </row>
@@ -2251,51 +2471,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731780335.9250665</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731780340.179754</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780335.9250665.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780340.179754.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>105.13</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>105.22</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2303,51 +2529,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731780341.258888</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731780342.11952</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780341.258888.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731780342.11952.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>105.56</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>105.15</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.4099999999999966</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -2355,95 +2587,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731780342.942564</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731780342.942564.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731780342.942564.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>105.7</v>
       </c>
-      <c r="J39" t="n">
-        <v>105.7</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>106.15</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.4500000000000028</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731780344.9452612</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731780354.9844604</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731780344.9452612.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731780354.9844604.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>347.84</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>350.85</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-3.010000000000048</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.8699999999999999</v>
       </c>
     </row>
@@ -2451,51 +2695,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731780355.7127504</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731780358.9302194</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731780355.7127504.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731780358.9302194.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>350.12</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>350.6</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.4800000000000182</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2503,95 +2753,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731780360.0281222</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731780360.0281222.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731780360.0281222.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>351.5</v>
       </c>
-      <c r="J42" t="n">
-        <v>351.5</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>351.71</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.2099999999999795</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731780363.7189028</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731780365.8302484</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780363.7189028.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780365.8302484.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>2780.75</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>2771.75</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>9</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2599,51 +2861,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731780367.0137775</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731780371.1934679</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780367.0137775.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780371.1934679.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>2781.9</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>2785.85</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-3.949999999999818</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2651,51 +2919,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731780375.2559984</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731780380.2062588</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780375.2559984.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MXI1731780380.2062588.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>2782.75</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>2781.65</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-1.099999999999909</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2703,95 +2977,107 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731780381.5587192</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731780381.5587192.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731780381.5587192.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>2785.75</v>
       </c>
-      <c r="J46" t="n">
-        <v>2785.75</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2795.2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-9.449999999999818</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731780388.1239939</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731780392.935276</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780388.1239939.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780392.935276.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>594.8</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>595</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2799,51 +3085,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731780394.7922392</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731780400.7834988</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780394.7922392.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780400.7834988.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>593.9</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>589.8</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-4.100000000000023</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.6899999999999999</v>
       </c>
     </row>
@@ -2851,51 +3143,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731780402.5208616</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731780402.8522363</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780402.5208616.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/TATN1731780402.8522363.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>592.6</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>590.9</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>1.700000000000045</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2903,44 +3201,50 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731780405.430802</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731780405.430802.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731780405.430802.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>595.1</v>
       </c>
-      <c r="J50" t="n">
-        <v>595.1</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>594.6</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -3001,19 +3305,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.200000000000045</v>
+        <v>-8.400000000000091</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2400000000000091</v>
+        <v>-1.680000000000018</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1000000000000001</v>
+        <v>-0.6799999999999998</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="3">
@@ -3023,19 +3327,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1799999999999926</v>
+        <v>-0.6299999999999955</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03599999999999852</v>
+        <v>-0.1259999999999991</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.17</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="4">
@@ -3045,19 +3349,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7.600000000000023</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.6</v>
+        <v>1.520000000000004</v>
       </c>
       <c r="E4" t="n">
-        <v>0.86</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -3067,19 +3371,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1110000000000007</v>
+        <v>0.02300000000000146</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02775000000000016</v>
+        <v>0.005750000000000366</v>
       </c>
       <c r="E5" t="n">
-        <v>0.78</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -3089,19 +3393,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4099999999999966</v>
+        <v>-0.5649999999999977</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1024999999999991</v>
+        <v>-0.1412499999999994</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.09</v>
+        <v>-1.5</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.27</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="7">
@@ -3111,19 +3415,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.950000000000273</v>
+        <v>-5.499999999999545</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9875000000000682</v>
+        <v>-1.374999999999886</v>
       </c>
       <c r="E7" t="n">
-        <v>0.14</v>
+        <v>-0.2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="8">
@@ -3133,19 +3437,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4000000000000341</v>
+        <v>-2.200000000000045</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1000000000000085</v>
+        <v>-0.5500000000000114</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.08999999999999996</v>
+        <v>-0.46</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.02</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3459,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.600000000000023</v>
+        <v>-2.100000000000023</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6500000000000057</v>
+        <v>-0.5250000000000057</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.43</v>
+        <v>-0.35</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.11</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="10">
@@ -3177,19 +3481,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.230000000000004</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.05750000000000099</v>
+        <v>-0.120000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.29</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="11">
@@ -3199,19 +3503,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.53000000000003</v>
+        <v>-2.740000000000009</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8433333333333431</v>
+        <v>-0.9133333333333363</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7299999999999999</v>
+        <v>-0.7899999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="12">
@@ -3221,19 +3525,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2099999999999795</v>
+        <v>-0.8099999999999739</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.06999999999999318</v>
+        <v>-0.2699999999999913</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.16</v>
+        <v>-0.6</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="13">
